--- a/biology/Médecine/1161_en_santé_et_médecine/1161_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1161_en_santé_et_médecine/1161_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1161_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1161_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1161 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1161_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1161_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1160-1161 :
-Une aumônerie Saint-Aubin est mentionnée à Angers[1].
-Fondation de la « Grande Maladrerie » de Beaulieu à Caen, en Normandie[2].</t>
+Une aumônerie Saint-Aubin est mentionnée à Angers.
+Fondation de la « Grande Maladrerie » de Beaulieu à Caen, en Normandie.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1161_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1161_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Girard, moine médecin, cité dans une charte de Bessé, en Anjou, parmi les dignitaires du chapitre de Marmoutier[3].
-Fl. Philippe, médecin, acquéreur d'un bien près de Villetard, en Champagne[4].
-Fl. Pierre, médecin, cité dans un acte de Raimbaut d'Orange[4].
-Fl. Roger, médecin, témoin de la fondation de la léproserie de la Bajasse, au diocèse d'Auvergne[4].
-1110-1161 : fl. Nizami Aruzi (en), écrivain et poète persan et, selon ses propres écrits, astronome et médecin, auteur en tout cas, en 1157, de « Quatre Discours » (Chahar maqala) dont le dernier porte sur la médecine[5],[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Girard, moine médecin, cité dans une charte de Bessé, en Anjou, parmi les dignitaires du chapitre de Marmoutier.
+Fl. Philippe, médecin, acquéreur d'un bien près de Villetard, en Champagne.
+Fl. Pierre, médecin, cité dans un acte de Raimbaut d'Orange.
+Fl. Roger, médecin, témoin de la fondation de la léproserie de la Bajasse, au diocèse d'Auvergne.
+1110-1161 : fl. Nizami Aruzi (en), écrivain et poète persan et, selon ses propres écrits, astronome et médecin, auteur en tout cas, en 1157, de « Quatre Discours » (Chahar maqala) dont le dernier porte sur la médecine,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1161_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1161_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1161-1166 : Averroès (1126-1198) rédige la première version de son Kitab al-kulliyat fil-tibb (« Livre des généralités sur la médecine »), également connu sous le titre de Colliget et dont il donnera une seconde version en 1194[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1161-1166 : Averroès (1126-1198) rédige la première version de son Kitab al-kulliyat fil-tibb (« Livre des généralités sur la médecine »), également connu sous le titre de Colliget et dont il donnera une seconde version en 1194.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1161_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1161_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>David ben Salomon (mort en 1241 ou 1251), « médecin juif, rallié pour la forme à l'Islam[8] », ayant exercé au Caire, à l'hôpital Al-Nassiri[9].
-Al-Baghdadi (mort en 1231), médecin, philosophe et historien arabe[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>David ben Salomon (mort en 1241 ou 1251), « médecin juif, rallié pour la forme à l'Islam », ayant exercé au Caire, à l'hôpital Al-Nassiri.
+Al-Baghdadi (mort en 1231), médecin, philosophe et historien arabe.</t>
         </is>
       </c>
     </row>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1161_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1161_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,10 +658,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Matthaeus Platearius (né vers 1120), médecin de Salerne, auteur d'un De medicinis simplicibus (« Livre des simples médecines ») où il « décrit deux cent soixante-treize remèdes, essentiellement issus du monde végétal », et qui est « une date dans l'histoire de la botanique (et de la pharmacie[11]) ».
-Kalaph ben Maza Alamar Alavasi, de Collioure en Roussillon, auteur d'un De oculorum morbis (« Des maladies des yeux[3] »).</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Matthaeus Platearius (né vers 1120), médecin de Salerne, auteur d'un De medicinis simplicibus (« Livre des simples médecines ») où il « décrit deux cent soixante-treize remèdes, essentiellement issus du monde végétal », et qui est « une date dans l'histoire de la botanique (et de la pharmacie) ».
+Kalaph ben Maza Alamar Alavasi, de Collioure en Roussillon, auteur d'un De oculorum morbis (« Des maladies des yeux »).</t>
         </is>
       </c>
     </row>
